--- a/PayrollProject/templates/CourtOrderDEO2003ChildMaintenanceInputSheet.xlsx
+++ b/PayrollProject/templates/CourtOrderDEO2003ChildMaintenanceInputSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\ProvarAz\PayrollProject\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0981835F-858B-4465-B890-6B6FFEDAF128}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9AC3F5-679F-4E7F-B376-4552B1E40665}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" firstSheet="1" activeTab="3" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
+    <workbookView xWindow="0" yWindow="1065" windowWidth="20490" windowHeight="7485" firstSheet="1" activeTab="3" xr2:uid="{1571BB46-0028-4CBE-BD11-D3A64AAEE268}"/>
   </bookViews>
   <sheets>
     <sheet name="October2018PayPeriod" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
   <si>
     <t>EmpName</t>
   </si>
@@ -83,7 +83,16 @@
     <t>DEO2003childmaintenance_Payroll</t>
   </si>
   <si>
-    <t>DO NOT TOUCH DEO2003 Child Maintance</t>
+    <t>DO NOT DEO2003 CM OCT</t>
+  </si>
+  <si>
+    <t>DO NOT DEO2003 CM NOV</t>
+  </si>
+  <si>
+    <t>DO NOT DEO2003 CM DEC</t>
+  </si>
+  <si>
+    <t>DO NOT DEO2003 CM JAN</t>
   </si>
 </sst>
 </file>
@@ -486,7 +495,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +569,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +626,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +643,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,7 +700,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +717,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +774,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
